--- a/mkp_p06.xlsx
+++ b/mkp_p06.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andre Raposo\Documents\Andre\Universidade\4º Ano - 2º Semestre\OD\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andre Raposo\Documents\Andre\Universidade\4º Ano - 2º Semestre\OD\Project\OD22_G12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B5157B-2CD5-411C-B0F4-5AFBB3F66B5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F82BA83F-FBF0-45FD-B0FD-991B44203F48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F02EEBCD-FB04-43C1-A2DA-BD6D21DAC29D}"/>
   </bookViews>
@@ -68,6 +68,8 @@
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
     <definedName name="stored_profit">Sheet1!$F$17:$F$18</definedName>
     <definedName name="stored_weights">Sheet1!$E$17:$E$18</definedName>
+    <definedName name="tabu1">Sheet1!$M$3:$M$12</definedName>
+    <definedName name="tabu2">Sheet1!$N$3:$N$12</definedName>
     <definedName name="Total_Profit">Sheet1!$F$20</definedName>
     <definedName name="Total_Weight">Sheet1!$E$20</definedName>
     <definedName name="used">Sheet1!$H$3:$H$12</definedName>
@@ -93,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>Total</t>
   </si>
@@ -135,6 +137,9 @@
   </si>
   <si>
     <t>solution</t>
+  </si>
+  <si>
+    <t>TS</t>
   </si>
 </sst>
 </file>
@@ -500,21 +505,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B6D8822-8A46-4AC2-ABB4-DC8DCF2B4CB4}">
-  <dimension ref="B1:K20"/>
+  <dimension ref="B1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="10.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11">
+    <row r="1" spans="2:14">
       <c r="J1" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="2:11">
+      <c r="M1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="2:14">
       <c r="B2" t="s">
         <v>9</v>
       </c>
@@ -542,8 +552,14 @@
       <c r="K2" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="2:11">
+      <c r="M2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14">
       <c r="B3">
         <v>1</v>
       </c>
@@ -572,8 +588,14 @@
       <c r="K3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="2:11">
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14">
       <c r="B4">
         <v>2</v>
       </c>
@@ -602,8 +624,14 @@
       <c r="K4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="2:11">
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14">
       <c r="B5">
         <v>3</v>
       </c>
@@ -632,8 +660,14 @@
       <c r="K5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="2:11">
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14">
       <c r="B6">
         <v>4</v>
       </c>
@@ -662,8 +696,14 @@
       <c r="K6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="2:11">
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14">
       <c r="B7">
         <v>5</v>
       </c>
@@ -692,8 +732,14 @@
       <c r="K7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="2:11">
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14">
       <c r="B8">
         <v>6</v>
       </c>
@@ -722,8 +768,14 @@
       <c r="K8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="2:11">
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14">
       <c r="B9">
         <v>7</v>
       </c>
@@ -752,8 +804,14 @@
       <c r="K9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="2:11">
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14">
       <c r="B10">
         <v>8</v>
       </c>
@@ -782,8 +840,14 @@
       <c r="K10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="2:11">
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14">
       <c r="B11">
         <v>9</v>
       </c>
@@ -812,8 +876,14 @@
       <c r="K11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="2:11">
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14">
       <c r="B12">
         <v>10</v>
       </c>
@@ -842,14 +912,20 @@
       <c r="K12">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="2:11">
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14">
       <c r="E15" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="2:11">
+    <row r="16" spans="2:14">
       <c r="B16" t="s">
         <v>2</v>
       </c>
@@ -863,7 +939,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="2:11">
+    <row r="17" spans="2:14">
       <c r="B17">
         <v>1</v>
       </c>
@@ -886,8 +962,16 @@
         <f>SUMPRODUCT(profits, solution1)</f>
         <v>242</v>
       </c>
-    </row>
-    <row r="18" spans="2:11">
+      <c r="M17">
+        <f>SUMPRODUCT(weights, tabu1)</f>
+        <v>102</v>
+      </c>
+      <c r="N17">
+        <f>SUMPRODUCT(profits, tabu1)</f>
+        <v>242</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14">
       <c r="B18">
         <v>2</v>
       </c>
@@ -910,8 +994,16 @@
         <f>SUMPRODUCT(profits, solution2)</f>
         <v>210</v>
       </c>
-    </row>
-    <row r="20" spans="2:11">
+      <c r="M18">
+        <f>SUMPRODUCT(weights, tabu2)</f>
+        <v>155</v>
+      </c>
+      <c r="N18">
+        <f>SUMPRODUCT(profits, tabu2)</f>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14">
       <c r="B20" t="s">
         <v>0</v>
       </c>
@@ -929,6 +1021,14 @@
       </c>
       <c r="K20">
         <f>SUM(K17:K18)</f>
+        <v>452</v>
+      </c>
+      <c r="M20">
+        <f>SUM(M17:M18)</f>
+        <v>257</v>
+      </c>
+      <c r="N20">
+        <f>SUM(N17:N18)</f>
         <v>452</v>
       </c>
     </row>
